--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.775999999999999</v>
+        <v>-7.702</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.837999999999999</v>
+        <v>-7.879</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.304</v>
+        <v>-13.497</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>7.922</v>
+        <v>6.962000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.356</v>
+        <v>6.017</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.218000000000001</v>
+        <v>-7.225</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.144</v>
+        <v>5.624000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,10 +672,10 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.622</v>
+        <v>-13.094</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.892</v>
+        <v>-7.806</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.706</v>
+        <v>-13.745</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.07</v>
+        <v>5.544</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.044</v>
+        <v>-13.415</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.366</v>
+        <v>-8.606999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.916</v>
+        <v>-8.255000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.866</v>
+        <v>-12.684</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.08</v>
+        <v>-8.219999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>7.31</v>
+        <v>6.751</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.267999999999999</v>
+        <v>-8.568999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.874</v>
+        <v>-12.491</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.536</v>
+        <v>-12.338</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.126</v>
+        <v>-13.397</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.970000000000001</v>
+        <v>-8.389999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.454</v>
+        <v>-12.518</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.878</v>
+        <v>8.416</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.82</v>
+        <v>-7.869</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.008000000000001</v>
+        <v>-8.238</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1182,10 +1182,10 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.366</v>
+        <v>-12.395</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.598000000000001</v>
+        <v>-7.672999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.6</v>
+        <v>-7.486</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.818</v>
+        <v>-13.542</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.296</v>
+        <v>-12.72</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.816</v>
+        <v>5.151</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.723999999999999</v>
+        <v>-8.440999999999999</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.204000000000001</v>
+        <v>-8.134</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.633999999999999</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>5.556</v>
+        <v>5.403</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.974</v>
+        <v>-11.083</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.248000000000001</v>
+        <v>-8.318000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.758</v>
+        <v>-13.46</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.474000000000001</v>
+        <v>5.476999999999999</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>7.49</v>
+        <v>7.114</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>4.806</v>
+        <v>5.17</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.949999999999999</v>
+        <v>8.273999999999999</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.402</v>
+        <v>5.575</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.618</v>
+        <v>5.867</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>7.117999999999999</v>
+        <v>6.145</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.976</v>
+        <v>-13.215</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.898</v>
+        <v>-12.768</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.275999999999999</v>
+        <v>-7.556</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.726</v>
+        <v>-11.372</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.25</v>
+        <v>-6.488</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.68</v>
+        <v>-6.798999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.773999999999999</v>
+        <v>-7.833000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.89</v>
+        <v>-12.705</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.484</v>
+        <v>-13.45</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.428000000000001</v>
+        <v>8.975</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.052</v>
+        <v>-13.022</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.888</v>
+        <v>-7.783999999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.702</v>
+        <v>7.468000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.25</v>
+        <v>-12.906</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
